--- a/data/StudyGroups.xlsx
+++ b/data/StudyGroups.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="9525"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="204">
   <si>
     <t>Т-119</t>
   </si>
@@ -539,13 +539,100 @@
   </si>
   <si>
     <t>ФБСтаС</t>
+  </si>
+  <si>
+    <t>М-317</t>
+  </si>
+  <si>
+    <t>М-318сп</t>
+  </si>
+  <si>
+    <t>М-328сп</t>
+  </si>
+  <si>
+    <t>М-338сп</t>
+  </si>
+  <si>
+    <t>М-118сп</t>
+  </si>
+  <si>
+    <t>М-128сп</t>
+  </si>
+  <si>
+    <t>М-318</t>
+  </si>
+  <si>
+    <t>М-316</t>
+  </si>
+  <si>
+    <t>М-327сп</t>
+  </si>
+  <si>
+    <t>М-337сп</t>
+  </si>
+  <si>
+    <t>М-347сп</t>
+  </si>
+  <si>
+    <t>М-319м</t>
+  </si>
+  <si>
+    <t>ІФ-217</t>
+  </si>
+  <si>
+    <t>ІФ-218сп</t>
+  </si>
+  <si>
+    <t>ІФ-228сп</t>
+  </si>
+  <si>
+    <t>ІФ-617</t>
+  </si>
+  <si>
+    <t>неизвестно какая кафедра</t>
+  </si>
+  <si>
+    <t>М-117</t>
+  </si>
+  <si>
+    <t>М-116</t>
+  </si>
+  <si>
+    <t>М-127сп</t>
+  </si>
+  <si>
+    <t>М-137сп</t>
+  </si>
+  <si>
+    <t>М-137_2</t>
+  </si>
+  <si>
+    <t>М-119м</t>
+  </si>
+  <si>
+    <t>М-217</t>
+  </si>
+  <si>
+    <t>М-218сп</t>
+  </si>
+  <si>
+    <t>М-228сп</t>
+  </si>
+  <si>
+    <t>М-216</t>
+  </si>
+  <si>
+    <t>М-227сп</t>
+  </si>
+  <si>
+    <t>М-237сп</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,13 +641,33 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -575,8 +682,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -666,6 +775,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -700,6 +810,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -875,20 +986,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -899,7 +1010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -910,7 +1021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -921,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -932,7 +1043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -943,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -954,7 +1065,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -965,7 +1076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -976,7 +1087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -987,7 +1098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -998,7 +1109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -1009,7 +1120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>138</v>
       </c>
@@ -1020,7 +1131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>138</v>
       </c>
@@ -1031,7 +1142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -1042,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -1053,7 +1164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>139</v>
       </c>
@@ -1064,7 +1175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -1075,7 +1186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -1086,7 +1197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -1097,7 +1208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>140</v>
       </c>
@@ -1108,7 +1219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>140</v>
       </c>
@@ -1119,7 +1230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>140</v>
       </c>
@@ -1130,7 +1241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>140</v>
       </c>
@@ -1141,7 +1252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -1152,7 +1263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -1163,7 +1274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>141</v>
       </c>
@@ -1174,7 +1285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -1185,7 +1296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -1196,7 +1307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -1207,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -1218,7 +1329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -1229,7 +1340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -1240,7 +1351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -1251,7 +1362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -1262,7 +1373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -1273,7 +1384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -1284,7 +1395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>145</v>
       </c>
@@ -1295,7 +1406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -1306,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -1317,7 +1428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>146</v>
       </c>
@@ -1328,7 +1439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>147</v>
       </c>
@@ -1339,7 +1450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>147</v>
       </c>
@@ -1350,7 +1461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>147</v>
       </c>
@@ -1361,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>147</v>
       </c>
@@ -1372,7 +1483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>147</v>
       </c>
@@ -1383,7 +1494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>147</v>
       </c>
@@ -1394,7 +1505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -1405,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>148</v>
       </c>
@@ -1416,7 +1527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>149</v>
       </c>
@@ -1427,7 +1538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>149</v>
       </c>
@@ -1438,7 +1549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>150</v>
       </c>
@@ -1449,7 +1560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>150</v>
       </c>
@@ -1460,7 +1571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -1471,7 +1582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>152</v>
       </c>
@@ -1482,7 +1593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -1493,7 +1604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>152</v>
       </c>
@@ -1504,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>153</v>
       </c>
@@ -1515,7 +1626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>153</v>
       </c>
@@ -1526,7 +1637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>153</v>
       </c>
@@ -1537,7 +1648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>153</v>
       </c>
@@ -1548,7 +1659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>153</v>
       </c>
@@ -1559,7 +1670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>154</v>
       </c>
@@ -1570,7 +1681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>154</v>
       </c>
@@ -1581,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>154</v>
       </c>
@@ -1592,7 +1703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>155</v>
       </c>
@@ -1603,7 +1714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>155</v>
       </c>
@@ -1614,7 +1725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>155</v>
       </c>
@@ -1625,7 +1736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>155</v>
       </c>
@@ -1636,7 +1747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>156</v>
       </c>
@@ -1647,7 +1758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>156</v>
       </c>
@@ -1658,7 +1769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>156</v>
       </c>
@@ -1669,7 +1780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>157</v>
       </c>
@@ -1680,7 +1791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>157</v>
       </c>
@@ -1691,7 +1802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>157</v>
       </c>
@@ -1702,7 +1813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -1713,7 +1824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>158</v>
       </c>
@@ -1724,7 +1835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -1735,7 +1846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>158</v>
       </c>
@@ -1746,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>158</v>
       </c>
@@ -1757,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -1768,7 +1879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>158</v>
       </c>
@@ -1779,7 +1890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>159</v>
       </c>
@@ -1790,7 +1901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>159</v>
       </c>
@@ -1801,7 +1912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>160</v>
       </c>
@@ -1812,7 +1923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>160</v>
       </c>
@@ -1823,7 +1934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>160</v>
       </c>
@@ -1834,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>160</v>
       </c>
@@ -1845,7 +1956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>161</v>
       </c>
@@ -1856,7 +1967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>161</v>
       </c>
@@ -1867,7 +1978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>162</v>
       </c>
@@ -1878,7 +1989,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>162</v>
       </c>
@@ -1889,7 +2000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>162</v>
       </c>
@@ -1900,7 +2011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>162</v>
       </c>
@@ -1911,7 +2022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>162</v>
       </c>
@@ -1922,7 +2033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>162</v>
       </c>
@@ -1933,7 +2044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>162</v>
       </c>
@@ -1944,7 +2055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>162</v>
       </c>
@@ -1955,7 +2066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>163</v>
       </c>
@@ -1966,7 +2077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>164</v>
       </c>
@@ -1977,7 +2088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>164</v>
       </c>
@@ -1988,7 +2099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>164</v>
       </c>
@@ -1999,7 +2110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>165</v>
       </c>
@@ -2010,7 +2121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>165</v>
       </c>
@@ -2021,7 +2132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>167</v>
       </c>
@@ -2032,7 +2143,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>167</v>
       </c>
@@ -2043,7 +2154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>166</v>
       </c>
@@ -2054,7 +2165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>166</v>
       </c>
@@ -2065,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>168</v>
       </c>
@@ -2076,7 +2187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>168</v>
       </c>
@@ -2087,7 +2198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>169</v>
       </c>
@@ -2098,7 +2209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>169</v>
       </c>
@@ -2109,7 +2220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>169</v>
       </c>
@@ -2120,7 +2231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>169</v>
       </c>
@@ -2131,7 +2242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>170</v>
       </c>
@@ -2142,7 +2253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>170</v>
       </c>
@@ -2153,7 +2264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>170</v>
       </c>
@@ -2164,7 +2275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>170</v>
       </c>
@@ -2175,7 +2286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>170</v>
       </c>
@@ -2186,7 +2297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>171</v>
       </c>
@@ -2197,7 +2308,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>171</v>
       </c>
@@ -2208,7 +2319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>171</v>
       </c>
@@ -2219,7 +2330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>171</v>
       </c>
@@ -2230,7 +2341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>172</v>
       </c>
@@ -2241,7 +2352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>172</v>
       </c>
@@ -2252,7 +2363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>172</v>
       </c>
@@ -2263,7 +2374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>172</v>
       </c>
@@ -2274,7 +2385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>172</v>
       </c>
@@ -2285,7 +2396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>172</v>
       </c>
@@ -2296,7 +2407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>172</v>
       </c>
@@ -2307,7 +2418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>173</v>
       </c>
@@ -2318,7 +2429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>173</v>
       </c>
@@ -2329,7 +2440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>173</v>
       </c>
@@ -2340,7 +2451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>173</v>
       </c>
@@ -2351,7 +2462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>174</v>
       </c>
@@ -2362,7 +2473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>174</v>
       </c>
@@ -2373,7 +2484,320 @@
         <v>3</v>
       </c>
     </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="s">
+        <v>175</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" t="s">
+        <v>176</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>177</v>
+      </c>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>178</v>
+      </c>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>179</v>
+      </c>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141" t="s">
+        <v>180</v>
+      </c>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142" t="s">
+        <v>181</v>
+      </c>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>138</v>
+      </c>
+      <c r="B143" t="s">
+        <v>182</v>
+      </c>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>138</v>
+      </c>
+      <c r="B144" t="s">
+        <v>183</v>
+      </c>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>138</v>
+      </c>
+      <c r="B145" t="s">
+        <v>184</v>
+      </c>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>138</v>
+      </c>
+      <c r="B146" t="s">
+        <v>185</v>
+      </c>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>138</v>
+      </c>
+      <c r="B147" t="s">
+        <v>186</v>
+      </c>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>138</v>
+      </c>
+      <c r="B148" t="s">
+        <v>187</v>
+      </c>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>138</v>
+      </c>
+      <c r="B149" t="s">
+        <v>188</v>
+      </c>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>138</v>
+      </c>
+      <c r="B150" t="s">
+        <v>189</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>138</v>
+      </c>
+      <c r="B151" t="s">
+        <v>190</v>
+      </c>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>170</v>
+      </c>
+      <c r="B152" t="s">
+        <v>192</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>170</v>
+      </c>
+      <c r="B153" t="s">
+        <v>193</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>170</v>
+      </c>
+      <c r="B154" t="s">
+        <v>194</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>170</v>
+      </c>
+      <c r="B155" t="s">
+        <v>195</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>170</v>
+      </c>
+      <c r="B156" t="s">
+        <v>196</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>170</v>
+      </c>
+      <c r="B157" t="s">
+        <v>197</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>170</v>
+      </c>
+      <c r="B158" t="s">
+        <v>198</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>170</v>
+      </c>
+      <c r="B159" t="s">
+        <v>199</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>170</v>
+      </c>
+      <c r="B160" t="s">
+        <v>200</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>170</v>
+      </c>
+      <c r="B161" t="s">
+        <v>201</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>170</v>
+      </c>
+      <c r="B162" t="s">
+        <v>202</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>170</v>
+      </c>
+      <c r="B163" t="s">
+        <v>203</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>